--- a/Resume Resources/Book for Dash Resume.xlsx
+++ b/Resume Resources/Book for Dash Resume.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resume Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14B5D902-9A2C-E146-9D09-80CCAA718947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="8_{14B5D902-9A2C-E146-9D09-80CCAA718947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9123202-03B6-4608-9383-51DA44E9CCB1}"/>
   <bookViews>
-    <workbookView xWindow="22980" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{E0C666D4-895C-5741-B0D1-E1FEFE90E65F}"/>
+    <workbookView xWindow="6492" yWindow="6492" windowWidth="22224" windowHeight="16848" xr2:uid="{E0C666D4-895C-5741-B0D1-E1FEFE90E65F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>Job</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Finish</t>
   </si>
   <si>
-    <t>Dashboard Analyst</t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>Senior Noncommissioned Officer</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Degree</t>
-  </si>
-  <si>
     <t>Northcentral University</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
     <t>Data Reports</t>
   </si>
   <si>
-    <t>M.S. Teams</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -138,6 +126,132 @@
   </si>
   <si>
     <t>DAX</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Southern New Hampshire University</t>
+  </si>
+  <si>
+    <t>United States Army Recruiting Command</t>
+  </si>
+  <si>
+    <t>United States Army Sergeants Major Course</t>
+  </si>
+  <si>
+    <t>University of Louisville</t>
+  </si>
+  <si>
+    <t>Graduate Certificate</t>
+  </si>
+  <si>
+    <t>Microsoft Teams</t>
+  </si>
+  <si>
+    <t>Blackboard</t>
+  </si>
+  <si>
+    <t>Brightspace D2L</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Remote</t>
+  </si>
+  <si>
+    <t>El Paso, TX</t>
+  </si>
+  <si>
+    <t>San Antonio, TX</t>
+  </si>
+  <si>
+    <t>Waterloo, IA</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
+    <t>Lynchburg, VA</t>
+  </si>
+  <si>
+    <t>Waterbury, CT</t>
+  </si>
+  <si>
+    <t>Charleston, SC</t>
+  </si>
+  <si>
+    <t>Louisville, KY</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>VS Code</t>
+  </si>
+  <si>
+    <t>R Studio</t>
+  </si>
+  <si>
+    <t>SQL Workbench</t>
+  </si>
+  <si>
+    <t>SQL Developer</t>
+  </si>
+  <si>
+    <t>Power Bi</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Google Looker Studio (Data Studio)</t>
+  </si>
+  <si>
+    <t>IBM Cognos</t>
+  </si>
+  <si>
+    <t>IBM DB2</t>
+  </si>
+  <si>
+    <t>AWS RDBMS</t>
+  </si>
+  <si>
+    <t>Oracle RDBMS</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Google Sheets</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>Google Workspace</t>
+  </si>
+  <si>
+    <t>Microsoft Azure</t>
+  </si>
+  <si>
+    <t>Microsoft 365</t>
+  </si>
+  <si>
+    <t>United States Army</t>
+  </si>
+  <si>
+    <t>United States, Europe</t>
+  </si>
+  <si>
+    <t>United States, Southwest Asia</t>
   </si>
 </sst>
 </file>
@@ -145,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -179,12 +293,19 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -195,6 +316,43 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1CF3033-49F8-4393-8F43-D74D0327036C}" name="Work.Education" displayName="Work.Education" ref="A1:F13" totalsRowShown="0">
+  <autoFilter ref="A1:F13" xr:uid="{B1CF3033-49F8-4393-8F43-D74D0327036C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8F4A1602-58A0-4E4A-A4D6-64CABEA3CDF5}" name="Organization"/>
+    <tableColumn id="2" xr3:uid="{7CC442DB-3AFF-419F-A7D7-D96B258E3167}" name="Function"/>
+    <tableColumn id="3" xr3:uid="{39FF8773-9AD4-4B5A-8506-D88D81274B75}" name="Job"/>
+    <tableColumn id="4" xr3:uid="{F3502C88-6C6D-4116-874A-6DC17F162F98}" name="Start" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DB70FBF5-D2C1-4A4F-84EB-1A84A1D052CC}" name="Finish" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{2FC54D54-F81E-4EEE-A60A-EDBA8319D913}" name="Location"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A8A6DC71-9C03-4CC8-BD33-16400F7F02E5}" name="Skills" displayName="Skills" ref="L1:M12" totalsRowShown="0">
+  <autoFilter ref="L1:M12" xr:uid="{A8A6DC71-9C03-4CC8-BD33-16400F7F02E5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A8E4EB84-32F0-4834-9FF1-D442554EC5C1}" name="Skills"/>
+    <tableColumn id="2" xr3:uid="{38BBA2E9-19C8-4842-9A90-B6F983E6B54E}" name="Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9BBCB93C-F68A-4084-AF54-BFB2C6563C5C}" name="Tools" displayName="Tools" ref="J1:K20" totalsRowShown="0">
+  <autoFilter ref="J1:K20" xr:uid="{9BBCB93C-F68A-4084-AF54-BFB2C6563C5C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B272DA34-63C9-4C70-866F-5919E1A23493}" name="Tools"/>
+    <tableColumn id="2" xr3:uid="{14634664-0820-4285-B909-A6069BCB60CA}" name="Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,250 +652,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BEF249-E585-FA45-81E7-394AF41FDA2D}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44795</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44013</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44795</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43221</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44013</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40360</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>96</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>38261</v>
+      </c>
+      <c r="E7" s="1">
+        <v>40360</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7">
+        <v>75</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D8" s="1">
+        <v>41306</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44228</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44743</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>41306</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44228</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44743</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D9" s="1">
         <v>41395</v>
       </c>
-      <c r="H3" s="1">
+      <c r="E9" s="1">
         <v>41883</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>44795</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40787</v>
-      </c>
-      <c r="H4" s="1">
-        <v>41395</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44013</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44795</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40299</v>
-      </c>
-      <c r="H5" s="1">
-        <v>40787</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43221</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44013</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="1">
-        <v>39814</v>
-      </c>
-      <c r="H6" s="1">
-        <v>40299</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>38261</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43221</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="K9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40787</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41395</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1">
+        <v>40299</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40787</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="K11">
+        <v>55</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39814</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40299</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="K12">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12">
         <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44197</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45069</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>68</v>
+      </c>
+      <c r="K20">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>